--- a/table_templates/docx11 шаблон.xlsx
+++ b/table_templates/docx11 шаблон.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\OneDrive\Desktop\vkr_prod-main\table_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980D9E76-A29E-4E24-A90B-2FCA00AB61EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF732280-6987-499A-8B06-37EBDEA3EEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2190" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ФИО</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>СегодняшняяДата</t>
+  </si>
+  <si>
+    <t>КафедраНазвание</t>
   </si>
 </sst>
 </file>
@@ -119,12 +122,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF70AD47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -133,17 +136,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -151,10 +169,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -437,32 +460,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="6" width="26.44140625" customWidth="1"/>
-    <col min="7" max="10" width="26.6640625" customWidth="1"/>
-    <col min="11" max="12" width="26.5546875" customWidth="1"/>
-    <col min="13" max="13" width="26.6640625" customWidth="1"/>
-    <col min="14" max="14" width="29.21875" customWidth="1"/>
-    <col min="15" max="15" width="26.6640625" customWidth="1"/>
-    <col min="16" max="16" width="26.21875" customWidth="1"/>
-    <col min="17" max="17" width="26.44140625" customWidth="1"/>
-    <col min="18" max="18" width="26.77734375" customWidth="1"/>
-    <col min="19" max="19" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="10" width="26.7109375" customWidth="1"/>
+    <col min="11" max="12" width="26.5703125" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" customWidth="1"/>
+    <col min="17" max="17" width="26.42578125" customWidth="1"/>
+    <col min="18" max="18" width="26.7109375" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" customWidth="1"/>
     <col min="20" max="20" width="27" customWidth="1"/>
+    <col min="21" max="21" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -490,43 +514,64 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="T2" s="1"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table_templates/docx11 шаблон.xlsx
+++ b/table_templates/docx11 шаблон.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\OneDrive\Desktop\vkr_prod-main\table_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_prod-main\table_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF732280-6987-499A-8B06-37EBDEA3EEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB36105-28B6-458A-89C4-CE42B005C971}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ФИО</t>
   </si>
@@ -91,13 +91,16 @@
   </si>
   <si>
     <t>КафедраНазвание</t>
+  </si>
+  <si>
+    <t>Фамилия И.О. зав кафедрыРП</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +115,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +135,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -165,11 +180,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -180,6 +236,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -460,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,14 +541,14 @@
     <col min="14" max="14" width="29.28515625" customWidth="1"/>
     <col min="15" max="15" width="26.7109375" customWidth="1"/>
     <col min="16" max="16" width="26.28515625" customWidth="1"/>
-    <col min="17" max="17" width="26.42578125" customWidth="1"/>
+    <col min="17" max="17" width="42.5703125" customWidth="1"/>
     <col min="18" max="18" width="26.7109375" customWidth="1"/>
     <col min="19" max="19" width="26.42578125" customWidth="1"/>
     <col min="20" max="20" width="27" customWidth="1"/>
     <col min="21" max="21" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,26 +594,29 @@
       <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -575,5 +641,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/table_templates/docx11 шаблон.xlsx
+++ b/table_templates/docx11 шаблон.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_prod-main\table_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB36105-28B6-458A-89C4-CE42B005C971}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87A8B1C-D3A9-47A6-9B4D-FDA100CD7DA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,52 +180,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -236,13 +195,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,7 +479,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,13 +547,13 @@
       <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S1" s="2" t="s">
